--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2582.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2582.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8453020587849261</v>
+        <v>1.228090882301331</v>
       </c>
       <c r="B1">
-        <v>1.33799488757431</v>
+        <v>5.544131278991699</v>
       </c>
       <c r="C1">
-        <v>2.9888786386439</v>
+        <v>3.719323396682739</v>
       </c>
       <c r="D1">
-        <v>2.30784765567917</v>
+        <v>0.9812163710594177</v>
       </c>
       <c r="E1">
-        <v>0.9601490750019356</v>
+        <v>0.627245306968689</v>
       </c>
     </row>
   </sheetData>
